--- a/products/时刻表/幻想郷鉄道スタフ.xlsx
+++ b/products/时刻表/幻想郷鉄道スタフ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e14eedcead5e2201/文档/TH Exhibitions/products/时刻表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\GSR-extra\products\时刻表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="11_41022B5EEB7AEC9AFB152037980FB29464A1F170" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DAD54E-EA80-4E25-A004-EB491BCBF989}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEC77DC-8CA0-48CB-8C81-E8D6901880C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2579,131 +2579,206 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2716,81 +2791,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3253,20 +3253,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="49" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3276,94 +3276,94 @@
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43"/>
-      <c r="E3" s="27" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="E3" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
-      <c r="E4" s="27" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="E4" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
-      <c r="E6" s="25" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="E6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-      <c r="E7" s="35" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="E7" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
-      <c r="E8" s="59" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="E8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
@@ -3387,297 +3387,297 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="32">
         <v>2</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
-      <c r="E11" s="34" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="49"/>
+      <c r="E11" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="29" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="49"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="32">
         <v>1</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="58"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
-      <c r="E13" s="34" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="49"/>
+      <c r="E13" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="58"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="29" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="32">
         <v>1</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="58"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="43"/>
-      <c r="E15" s="34" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="E15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="58"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="29" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="32">
         <v>1</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="58"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
-      <c r="E17" s="34" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="E17" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="30" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="32">
         <v>1</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="E19" s="34" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="E19" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="58"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="31" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="32">
         <v>4</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="58"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="58"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="49"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="65"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="66"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
-      <c r="E24" s="27" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
+      <c r="E24" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43"/>
-      <c r="E25" s="25" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="E25" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="51"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
-      <c r="E26" s="35" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="E26" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="E27" s="24" t="s">
         <v>5</v>
       </c>
@@ -3688,14 +3688,14 @@
       <c r="H27" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="49"/>
       <c r="E28" s="9" t="s">
         <v>7</v>
       </c>
@@ -3719,315 +3719,366 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="32">
         <v>2</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="54"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="43"/>
-      <c r="E30" s="34" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
+      <c r="E30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="55"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="43"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="29" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="32">
         <v>1</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="54"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="43"/>
-      <c r="E32" s="34" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="E32" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="55"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="43"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="29" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="49"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="32">
         <v>1</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="J33" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="54"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="43"/>
-      <c r="E34" s="34" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
+      <c r="E34" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="55"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="43"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="29" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="32">
         <v>1</v>
       </c>
-      <c r="J35" s="56" t="s">
+      <c r="J35" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="54"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="43"/>
-      <c r="E36" s="34" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
+      <c r="E36" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="55"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="43"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="30" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="49"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="32">
         <v>1</v>
       </c>
-      <c r="J37" s="40" t="s">
+      <c r="J37" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="54"/>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="43"/>
-      <c r="E38" s="34" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
+      <c r="E38" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="55"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="43"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="31" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="49"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="32">
         <v>4</v>
       </c>
-      <c r="J39" s="40" t="s">
+      <c r="J39" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="54"/>
+      <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="43"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="55"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="49"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="43"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="54"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="49"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="25"/>
     </row>
     <row r="42" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="62"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="45"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="43"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="45"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="43"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="49"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="45"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="C1:C49"/>
+    <mergeCell ref="B1:B49"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I6:K6"/>
@@ -4052,76 +4103,25 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C1:C49"/>
-    <mergeCell ref="B1:B49"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.39" right="0.25" top="0.21" bottom="0.23" header="0.12" footer="0.12"/>
@@ -4152,13 +4152,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="73" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4166,99 +4166,99 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="2"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="3"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="51"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="95"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="95"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
@@ -4282,431 +4282,431 @@
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="32">
         <v>2</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="45"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="58"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="45"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="95"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="45"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="58"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="45"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="32">
         <v>1</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="58"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="45"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="32">
         <v>1</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="G16" s="45"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="58"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="45"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="32">
         <v>1</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="58"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
+      <c r="G18" s="45"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="58"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="45"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="32">
         <v>4</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="68">
         <v>25</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
+      <c r="G20" s="45"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="58"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="45"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="83" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="32">
         <v>2</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="58"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="45"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="74"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="75"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="58"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="45"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="83" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="32">
         <v>1</v>
       </c>
-      <c r="F24" s="89" t="s">
+      <c r="F24" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
+      <c r="G24" s="45"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34">
+      <c r="A25" s="54">
         <v>2</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="75"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="58"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="45"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="29" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="83" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="32">
         <v>1</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
+      <c r="G26" s="45"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="75"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="58"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="45"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="83" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="32">
         <v>1</v>
       </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="58"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="45"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="75"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="58"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="45"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="83" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="32">
         <v>1</v>
       </c>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
+      <c r="G30" s="45"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="58"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="45"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
     </row>
     <row r="32" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="57" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="32">
         <v>2</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
+      <c r="G32" s="45"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="1:11" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="88"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
@@ -4718,67 +4718,67 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="95"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="73"/>
     </row>
     <row r="35" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="51"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="95"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="71"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="95"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="60"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="95"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
     </row>
     <row r="38" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
@@ -4802,434 +4802,594 @@
       <c r="G38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="93"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="95"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="73"/>
     </row>
     <row r="39" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="32">
         <v>2</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="95"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="45"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73"/>
     </row>
     <row r="40" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="58"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="95"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="45"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
     </row>
     <row r="41" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="88"/>
+      <c r="B41" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="74" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="32">
         <v>1</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="95"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="45"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="73"/>
     </row>
     <row r="42" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="87"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="75"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="58"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="95"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="45"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="73"/>
     </row>
     <row r="43" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34"/>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="91" t="s">
+      <c r="D43" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="32">
         <v>1</v>
       </c>
-      <c r="F43" s="89" t="s">
+      <c r="F43" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="58"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="95"/>
+      <c r="G43" s="45"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="73"/>
     </row>
     <row r="44" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="58"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="95"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="45"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="73"/>
     </row>
     <row r="45" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="34"/>
-      <c r="B45" s="29" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="91" t="s">
+      <c r="D45" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="32">
         <v>1</v>
       </c>
-      <c r="F45" s="89" t="s">
+      <c r="F45" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="G45" s="58"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="95"/>
+      <c r="G45" s="45"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="73"/>
     </row>
     <row r="46" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34">
+      <c r="A46" s="54">
         <v>5</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="58"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="95"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="45"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="73"/>
     </row>
     <row r="47" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="87" t="s">
+      <c r="C47" s="74" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="32">
         <v>1</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="58"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="95"/>
+      <c r="G47" s="45"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="73"/>
     </row>
     <row r="48" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="34">
+      <c r="A48" s="54">
         <v>2</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="87"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="75"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="58"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="95"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="45"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="73"/>
     </row>
     <row r="49" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="34"/>
-      <c r="B49" s="31" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="32">
         <v>4</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="68">
         <v>25</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="95"/>
+      <c r="G49" s="45"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="73"/>
     </row>
     <row r="50" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="58"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="95"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="45"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="73"/>
     </row>
     <row r="51" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="34"/>
-      <c r="B51" s="30" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="83" t="s">
         <v>89</v>
       </c>
       <c r="D51" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="32">
         <v>2</v>
       </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="58"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="95"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="45"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="73"/>
     </row>
     <row r="52" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="74"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="83"/>
       <c r="D52" s="75"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="58"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="95"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="45"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="73"/>
     </row>
     <row r="53" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="34"/>
-      <c r="B53" s="29" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="83" t="s">
         <v>91</v>
       </c>
       <c r="D53" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="32">
         <v>1</v>
       </c>
-      <c r="F53" s="89" t="s">
+      <c r="F53" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="95"/>
+      <c r="G53" s="45"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="73"/>
     </row>
     <row r="54" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="74"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="83"/>
       <c r="D54" s="75"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="58"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="95"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="45"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="73"/>
     </row>
     <row r="55" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="34"/>
-      <c r="B55" s="29" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="87" t="s">
+      <c r="C55" s="74" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="32">
         <v>1</v>
       </c>
-      <c r="F55" s="89" t="s">
+      <c r="F55" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="G55" s="58"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="95"/>
+      <c r="G55" s="45"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="73"/>
     </row>
     <row r="56" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="87"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="75"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="58"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="95"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="45"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="73"/>
     </row>
     <row r="57" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="34"/>
-      <c r="B57" s="29" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="C57" s="74" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="32">
         <v>1</v>
       </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="58"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="95"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="45"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="73"/>
     </row>
     <row r="58" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="87"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="75"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="58"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="95"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="45"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="73"/>
     </row>
     <row r="59" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="34"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="74" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E59" s="32">
         <v>1</v>
       </c>
-      <c r="F59" s="89" t="s">
+      <c r="F59" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="G59" s="58"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="95"/>
+      <c r="G59" s="45"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="73"/>
     </row>
     <row r="60" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="87"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="75"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="58"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="95"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="45"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="73"/>
     </row>
     <row r="61" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="34"/>
-      <c r="B61" s="28" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="57" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="46">
+      <c r="E61" s="32">
         <v>2</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="G61" s="58"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="95"/>
+      <c r="G61" s="45"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="73"/>
     </row>
     <row r="62" spans="1:11" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="88"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="95"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="70"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="184">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="G61:G62"/>
@@ -5254,166 +5414,6 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.51" right="0.31458333333333299" top="0.19" bottom="7.8472222222222193E-2" header="0.12" footer="3.8888888888888903E-2"/>
